--- a/csv_files/privileged_users.xlsx
+++ b/csv_files/privileged_users.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\billd\Documents\Spring 2021\software_engineering\project\testing\csv_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DA468B-AF68-4A5B-8BF1-960B39B0DA4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
-    <t xml:space="preserve">ID </t>
-  </si>
-  <si>
     <t>Type_user</t>
   </si>
   <si>
@@ -116,13 +119,16 @@
   </si>
   <si>
     <t>Sony Corp.</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +191,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -231,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,9 +277,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,6 +329,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,228 +522,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="43.81640625" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" customWidth="1"/>
+    <col min="5" max="5" width="38.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11">
         <v>0</v>

--- a/csv_files/privileged_users.xlsx
+++ b/csv_files/privileged_users.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\billd\Documents\Spring 2021\software_engineering\project\testing\csv_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Csc322-3\Online-Computer-Store-System-main\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DA468B-AF68-4A5B-8BF1-960B39B0DA4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1F9FF9-A016-40A8-B966-815071A41FA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="1875" windowWidth="23475" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>Type_user</t>
   </si>
@@ -37,111 +40,47 @@
     <t>Warnings</t>
   </si>
   <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Super user</t>
   </si>
   <si>
-    <t>clerk</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>computer_company</t>
-  </si>
-  <si>
     <t>admin@lenovo.com</t>
   </si>
   <si>
-    <t>staff_Thompson@lenovo.com</t>
-  </si>
-  <si>
-    <t>staff_Chen@lenovo.com</t>
-  </si>
-  <si>
-    <t>staff_Smith@lenovo.com</t>
-  </si>
-  <si>
-    <t>delivery_FedEx@lenovo.com</t>
-  </si>
-  <si>
-    <t>delivery_EasyPost@lenovo.com</t>
-  </si>
-  <si>
-    <t>delivery_UPS@lenovo.com</t>
-  </si>
-  <si>
-    <t>company_UmbrellaCorporation@lenovo.com</t>
-  </si>
-  <si>
-    <t>company_Apple@lenovo.com</t>
-  </si>
-  <si>
-    <t>company_Sony@lenovo.com</t>
-  </si>
-  <si>
-    <t>Lenovo</t>
-  </si>
-  <si>
-    <t>clerk_access</t>
-  </si>
-  <si>
-    <t>delivery_access</t>
-  </si>
-  <si>
-    <t>computer_access</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lenovo </t>
   </si>
   <si>
-    <t>Ms. Thompson</t>
-  </si>
-  <si>
-    <t>Ms. Chen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Smith </t>
-  </si>
-  <si>
-    <t>FedEx</t>
-  </si>
-  <si>
-    <t>EasyPost</t>
-  </si>
-  <si>
-    <t>UPS</t>
-  </si>
-  <si>
-    <t>Umbrella Corporation</t>
-  </si>
-  <si>
-    <t>Apple Inc.</t>
-  </si>
-  <si>
-    <t>Sony Corp.</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>active</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -187,7 +126,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -245,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,27 +216,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,24 +250,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,241 +426,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="43.81640625" customWidth="1"/>
-    <col min="4" max="4" width="30.453125" customWidth="1"/>
-    <col min="5" max="5" width="38.7265625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
+      <c r="D2">
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3">
+      <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/csv_files/privileged_users.xlsx
+++ b/csv_files/privileged_users.xlsx
@@ -1,92 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Csc322-3\Online-Computer-Store-System-main\csv_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1F9FF9-A016-40A8-B966-815071A41FA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="1875" windowWidth="23475" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Type_user</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Warnings</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Super user</t>
-  </si>
-  <si>
-    <t>admin@lenovo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenovo </t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -101,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -425,70 +420,456 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type_user</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Warnings</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Super user</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>admin@lenovo.com</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>123</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>clerk</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ada_wong@lenovo.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ada Wong</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>clerk</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>claire_redfield@lenovo.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Claire Redfield</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>clerk</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>moira_burton@lenovo.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Moira Burton</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>delivery</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ups@lenovo.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>delivery</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>fast_delivery@lenovo.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fast Delivery</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>delivery</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>on_track@lenovo.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>On Track</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>computer company</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>apple@lenovo.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Apple Inc.</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>computer company</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>system76@lenovo.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>System76</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>123</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>computer company</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sony@lenovo.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>computer company</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ibm@lenovo.com</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>